--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>595068.3663503266</v>
+        <v>592689.4421453221</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11728838.05322122</v>
+        <v>11728838.05322121</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>70.96623135647351</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>61.058014877892</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.25068158191804</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>266.832119614542</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>48.88764884654731</v>
+        <v>64.83435391452835</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>171.1857152740013</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>223.0977753814021</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.28266377778658</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>161.9836987139246</v>
+        <v>43.61939039064818</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.68616098663286</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016431</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>43.61939039064551</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>35.31518532889472</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.7926158915254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>68.26731868125947</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>236.7673527862024</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.992743550662</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856722</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292267</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>172.3645574474279</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.0270735093644</v>
+        <v>103.1686991936178</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520963</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.16281301712667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493312</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.6394815529</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>1236.6394815529</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>850.8512289546557</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557433</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>699.120390387711</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>699.120390387711</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>699.120390387711</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>601.8974796989049</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.1049005553748</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245.732315283596</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259407</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>871.505542336824</v>
+        <v>765.567302197401</v>
       </c>
       <c r="T7" t="n">
-        <v>871.505542336824</v>
+        <v>765.567302197401</v>
       </c>
       <c r="U7" t="n">
-        <v>871.505542336824</v>
+        <v>765.567302197401</v>
       </c>
       <c r="V7" t="n">
-        <v>871.505542336824</v>
+        <v>765.567302197401</v>
       </c>
       <c r="W7" t="n">
-        <v>871.505542336824</v>
+        <v>476.1501321604404</v>
       </c>
       <c r="X7" t="n">
-        <v>643.5159914388066</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5159914388066</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.047335491682</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.781636884932</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>989.9933842866876</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>579.0074794970801</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143764</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.356241231444</v>
+        <v>137.8766533415559</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309952</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309952</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309952</v>
+        <v>971.0535382402055</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309952</v>
+        <v>681.9783115844034</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.555541309952</v>
+        <v>427.2938233785165</v>
       </c>
       <c r="W13" t="n">
-        <v>1151.138371272991</v>
+        <v>137.8766533415559</v>
       </c>
       <c r="X13" t="n">
-        <v>923.1488203749741</v>
+        <v>137.8766533415559</v>
       </c>
       <c r="Y13" t="n">
-        <v>702.356241231444</v>
+        <v>137.8766533415559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>262.7528459758788</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1429.761439303252</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S16" t="n">
-        <v>1246.906604958157</v>
+        <v>1190.655003217262</v>
       </c>
       <c r="T16" t="n">
-        <v>1027.305139981098</v>
+        <v>971.0535382402029</v>
       </c>
       <c r="U16" t="n">
-        <v>738.2299133252957</v>
+        <v>681.9783115844007</v>
       </c>
       <c r="V16" t="n">
-        <v>483.5454251194088</v>
+        <v>427.2938233785138</v>
       </c>
       <c r="W16" t="n">
-        <v>483.5454251194088</v>
+        <v>137.8766533415532</v>
       </c>
       <c r="X16" t="n">
-        <v>483.5454251194088</v>
+        <v>137.8766533415532</v>
       </c>
       <c r="Y16" t="n">
-        <v>262.7528459758788</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,7 +5540,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5692,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309952</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332893</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U19" t="n">
-        <v>1220.954076332893</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.954076332893</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.954076332893</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>1220.954076332893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.617460910108</v>
+        <v>410.6659395582719</v>
       </c>
       <c r="C22" t="n">
-        <v>701.6812779822011</v>
+        <v>241.729756630365</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>402.4420650943382</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>792.8406592702784</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731429</v>
+        <v>1214.850362001313</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391437</v>
+        <v>1546.846905391418</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100422</v>
+        <v>1916.376186100403</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673981</v>
+        <v>2209.051641673962</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.24987640088</v>
+        <v>2328.249876400861</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653283</v>
+        <v>2261.204172653263</v>
       </c>
       <c r="S22" t="n">
-        <v>2078.349338308187</v>
+        <v>2078.349338308168</v>
       </c>
       <c r="T22" t="n">
-        <v>1858.747873331128</v>
+        <v>1858.747873331109</v>
       </c>
       <c r="U22" t="n">
-        <v>1569.672646675326</v>
+        <v>1569.672646675307</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.672646675326</v>
+        <v>1330.513704467021</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.255476638365</v>
+        <v>1041.096534430059</v>
       </c>
       <c r="X22" t="n">
-        <v>1052.265925740348</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="Y22" t="n">
-        <v>1052.265925740348</v>
+        <v>592.3144043885117</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778193</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654835</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830904</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>343.09946568518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.90336640006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.90336640006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263524</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135311</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237294</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093764</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,19 +6604,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>991.7436897307854</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C34" t="n">
-        <v>822.8075068028785</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580264</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603205</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947403</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741516</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704555</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1394.184733704555</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1173.392154561025</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7154,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811715</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>106.7437663446525</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.5973304252235</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>85.54162768294304</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819443</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>5.26312238470328</v>
+        <v>123.6274307079797</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.68908572348884</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.9652629614493</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>182.0902649983935</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.79203746056942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.34815433695289</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>15.37029053762558</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.83923663127526</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>114.1584408891631</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.58839950884796</v>
+        <v>45.44677382459454</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979042.9456070797</v>
+        <v>979042.9456070798</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979042.9456070794</v>
+        <v>979042.9456070798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979042.9456070799</v>
+        <v>979042.9456070798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1018857.381527325</v>
+        <v>1018857.381527324</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321414</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>410520.8849321415</v>
-      </c>
-      <c r="D2" t="n">
-        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
         <v>391617.1782428318</v>
@@ -26326,22 +26326,22 @@
         <v>391617.1782428317</v>
       </c>
       <c r="G2" t="n">
-        <v>391617.1782428319</v>
+        <v>391617.1782428318</v>
       </c>
       <c r="H2" t="n">
-        <v>402162.986943712</v>
+        <v>402162.9869437118</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
@@ -26350,10 +26350,10 @@
         <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073121</v>
+        <v>14243.58217073091</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26451,7 +26451,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1119754.545460897</v>
       </c>
       <c r="C6" t="n">
+        <v>208990.2002666957</v>
+      </c>
+      <c r="D6" t="n">
         <v>208990.2002666956</v>
       </c>
-      <c r="D6" t="n">
-        <v>208990.2002666958</v>
-      </c>
       <c r="E6" t="n">
-        <v>-35679.20159711353</v>
+        <v>-35773.72013056133</v>
       </c>
       <c r="F6" t="n">
-        <v>289733.2602102411</v>
+        <v>289638.7416767945</v>
       </c>
       <c r="G6" t="n">
-        <v>289733.2602102413</v>
+        <v>289638.741676795</v>
       </c>
       <c r="H6" t="n">
-        <v>286796.8749490737</v>
+        <v>286755.0854591316</v>
       </c>
       <c r="I6" t="n">
-        <v>286404.1860492036</v>
+        <v>286369.4481237681</v>
       </c>
       <c r="J6" t="n">
-        <v>68872.98365192639</v>
+        <v>68838.24572649077</v>
       </c>
       <c r="K6" t="n">
-        <v>286404.186049204</v>
+        <v>286369.4481237682</v>
       </c>
       <c r="L6" t="n">
-        <v>286404.1860492041</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="M6" t="n">
-        <v>201349.1581136924</v>
+        <v>201314.4201882562</v>
       </c>
       <c r="N6" t="n">
-        <v>286404.1860492041</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="O6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237684</v>
       </c>
       <c r="P6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237683</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>335.909814385238</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.9061777609861</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>118.7739653040453</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.4589738071191</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98.44077215646553</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729998</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.8813764848946</v>
+        <v>124.9346714169135</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>239.7360103794521</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>126.1431933360109</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>196.9291744278263</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.134432477928225e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.69252986170444e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
     </row>
     <row r="35">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>171.5999003578885</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>391.9250669264629</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,13 +32336,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>29.46586643587019</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401628</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649824</v>
@@ -36048,19 +36048,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168229</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>335.3500438283887</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
